--- a/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.classification` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.classification` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.classification` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.classification.type` is part of an existing definition because parent element `DeviceDefinition.classification` requires a cross-version extension.
-Element `DeviceDefinition.classification.type` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.classification.type` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.classification.justification` is part of an existing definition because parent element `DeviceDefinition.classification` requires a cross-version extension.
-Element `DeviceDefinition.classification.justification` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.classification.justification` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:justification.id</t>
@@ -800,7 +800,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.7109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="149.3046875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.classification` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.classification` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.classification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.classification.type` is part of an existing definition because parent element `DeviceDefinition.classification` requires a cross-version extension.
-Element `DeviceDefinition.classification.type` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.classification.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -434,7 +437,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.classification.justification` is part of an existing definition because parent element `DeviceDefinition.classification` requires a cross-version extension.
-Element `DeviceDefinition.classification.justification` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.classification.justification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:justification.id</t>
@@ -444,6 +447,9 @@
   </si>
   <si>
     <t>Extension.extension:justification.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification.justification</t>
   </si>
   <si>
     <t>Extension.extension:justification.value[x]</t>
@@ -800,7 +806,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="149.3046875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.3203125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1608,7 +1614,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1650,7 +1656,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1665,15 +1671,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1696,7 +1702,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1729,13 +1735,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1753,7 +1759,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1765,21 +1771,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1804,14 +1810,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1880,7 +1886,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2131,7 +2137,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2173,7 +2179,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2188,15 +2194,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2219,13 +2225,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2276,7 +2282,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2288,18 +2294,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2381,7 +2387,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -2396,15 +2402,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2427,13 +2433,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2484,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2496,10 +2502,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -406,15 +406,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of device e.g. according to official classification.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-device-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -816,8 +807,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.76171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1735,31 +1726,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1771,7 +1762,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1779,13 +1770,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1810,14 +1801,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1886,7 +1877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1989,7 +1980,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2094,7 +2085,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2137,7 +2128,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2199,7 +2190,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2225,13 +2216,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2282,7 +2273,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2294,7 +2285,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2407,10 +2398,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2433,13 +2424,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2490,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2502,7 +2493,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>121</v>

--- a/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.classification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>A classification or risk class of the device model.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.classification.type` is part of an existing definition because parent element `DeviceDefinition.classification` requires a cross-version extension.
-Element `DeviceDefinition.classification.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.classification.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -427,8 +423,7 @@
     <t>Further information qualifying this classification of the device model.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.classification.justification` is part of an existing definition because parent element `DeviceDefinition.classification` requires a cross-version extension.
-Element `DeviceDefinition.classification.justification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.classification.justification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:justification.id</t>
@@ -438,9 +433,6 @@
   </si>
   <si>
     <t>Extension.extension:justification.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification.justification</t>
   </si>
   <si>
     <t>Extension.extension:justification.value[x]</t>
@@ -1605,72 +1597,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1693,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1750,7 +1742,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1762,21 +1754,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1801,14 +1793,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1877,7 +1869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1980,7 +1972,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2085,7 +2077,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2128,7 +2120,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2170,30 +2162,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2216,13 +2208,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2273,7 +2265,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2285,18 +2277,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2378,30 +2370,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2424,13 +2416,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2481,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2493,10 +2485,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
